--- a/test/output/compress網路壽命比較.xlsx
+++ b/test/output/compress網路壽命比較.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61A7A3-5C18-49D0-B094-A70D4B7BECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5B769-13DD-42B2-BA81-138316BDF408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,30 +46,6 @@
   </si>
   <si>
     <t>相差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2/1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2/1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2/1.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -200,7 +176,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -211,11 +189,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -364,6 +346,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -449,6 +452,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1551</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -476,7 +500,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -486,10 +510,12 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -536,7 +562,7 @@
                   <c:v>56676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53996</c:v>
+                  <c:v>55156</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53781</c:v>
@@ -548,10 +574,10 @@
                   <c:v>46105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40839</c:v>
+                  <c:v>41586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38434</c:v>
+                  <c:v>40151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +949,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -934,11 +962,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1087,6 +1119,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1172,6 +1225,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1901</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1199,7 +1273,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1209,10 +1283,12 @@
             <c:symbol val="x"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1265,16 +1341,16 @@
                   <c:v>63961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57530</c:v>
+                  <c:v>63571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43274</c:v>
+                  <c:v>61336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42155</c:v>
+                  <c:v>60301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34885</c:v>
+                  <c:v>56251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +1716,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1651,11 +1727,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1702,7 +1778,7 @@
                   <c:v>56676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53996</c:v>
+                  <c:v>55156</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>53781</c:v>
@@ -1714,10 +1790,10 @@
                   <c:v>46105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40839</c:v>
+                  <c:v>41586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38434</c:v>
+                  <c:v>40151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,7 +1822,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1757,11 +1835,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1852,7 +1934,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1863,11 +1947,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2301,7 +2389,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2312,11 +2400,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2369,16 +2457,16 @@
                   <c:v>63961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57530</c:v>
+                  <c:v>63571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43274</c:v>
+                  <c:v>61336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42155</c:v>
+                  <c:v>60301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34885</c:v>
+                  <c:v>56251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,7 +2495,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2418,11 +2508,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2513,7 +2607,9 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2524,11 +2620,15 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2571,6 +2671,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48151</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5148,14 +5269,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68579</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184784</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5184,14 +5305,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>422908</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5220,14 +5341,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5258,14 +5379,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>626747</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>643892</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5616,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5697,10 +5818,52 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>20251</v>
+      </c>
+      <c r="D3">
+        <v>8061</v>
+      </c>
+      <c r="E3">
+        <v>2641</v>
+      </c>
+      <c r="F3">
+        <v>841</v>
+      </c>
+      <c r="G3">
+        <v>771</v>
+      </c>
+      <c r="H3">
+        <v>671</v>
+      </c>
+      <c r="I3">
+        <v>571</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4551</v>
+      </c>
+      <c r="D4">
+        <v>3561</v>
+      </c>
+      <c r="E4">
+        <v>2721</v>
+      </c>
+      <c r="F4">
+        <v>3341</v>
+      </c>
+      <c r="G4">
+        <v>2501</v>
+      </c>
+      <c r="H4">
+        <v>1411</v>
+      </c>
+      <c r="I4">
+        <v>1551</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -5712,7 +5875,7 @@
         <v>56676</v>
       </c>
       <c r="D5">
-        <v>53996</v>
+        <v>55156</v>
       </c>
       <c r="E5">
         <v>53781</v>
@@ -5724,10 +5887,10 @@
         <v>46105</v>
       </c>
       <c r="H5">
-        <v>40839</v>
+        <v>41586</v>
       </c>
       <c r="I5">
-        <v>38434</v>
+        <v>40151</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5741,7 +5904,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>6673</v>
@@ -5776,7 +5939,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>49885</v>
@@ -5818,7 +5981,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3440</v>
+        <v>4600</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -5834,11 +5997,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>7412</v>
+        <v>8159</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>7416</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -5900,10 +6063,52 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>22871</v>
+      </c>
+      <c r="D11">
+        <v>12271</v>
+      </c>
+      <c r="E11">
+        <v>9141</v>
+      </c>
+      <c r="F11">
+        <v>4081</v>
+      </c>
+      <c r="G11">
+        <v>1231</v>
+      </c>
+      <c r="H11">
+        <v>891</v>
+      </c>
+      <c r="I11">
+        <v>801</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5831</v>
+      </c>
+      <c r="D12">
+        <v>4531</v>
+      </c>
+      <c r="E12">
+        <v>4891</v>
+      </c>
+      <c r="F12">
+        <v>3321</v>
+      </c>
+      <c r="G12">
+        <v>2741</v>
+      </c>
+      <c r="H12">
+        <v>2171</v>
+      </c>
+      <c r="I12">
+        <v>1901</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -5921,22 +6126,22 @@
         <v>63961</v>
       </c>
       <c r="F13">
-        <v>57530</v>
+        <v>63571</v>
       </c>
       <c r="G13">
-        <v>43274</v>
+        <v>61336</v>
       </c>
       <c r="H13">
-        <v>42155</v>
+        <v>60301</v>
       </c>
       <c r="I13">
-        <v>34885</v>
+        <v>56251</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>7103.63</v>
@@ -5963,7 +6168,28 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>57655</v>
+      </c>
+      <c r="D15">
+        <v>54715</v>
+      </c>
+      <c r="E15">
+        <v>54343</v>
+      </c>
+      <c r="F15">
+        <v>52939</v>
+      </c>
+      <c r="G15">
+        <v>50197</v>
+      </c>
+      <c r="H15">
+        <v>48511</v>
+      </c>
+      <c r="I15">
+        <v>48151</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -5984,19 +6210,19 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>4804</v>
+        <v>10845</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-1812</v>
+        <v>16250</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>901</v>
+        <v>19047</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>-128</v>
+        <v>21238</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6017,36 +6243,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
